--- a/Dataset/Company 404212.xlsx
+++ b/Dataset/Company 404212.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saqib\Desktop\Project\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saqib\Desktop\Git Project\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC84205A-A431-436E-8014-82402D3A61C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97140F65-922D-46AB-904B-8DD12D9F6157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{002FC35A-6CB3-4E72-BB45-6685D62845B2}"/>
   </bookViews>
@@ -407,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61186A3E-A3B8-4B16-A36A-736C14EB279E}">
   <dimension ref="A1:F500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="J493" sqref="J493"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1268,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>1307.8</v>
+        <v>117.8</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
